--- a/data/07-08-2025.xlsx
+++ b/data/07-08-2025.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -458,9 +458,23 @@
         <v>jjugugioohigiug</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>fish</v>
+      </c>
+      <c r="B5" t="str">
+        <v/>
+      </c>
+      <c r="C5" t="str">
+        <v/>
+      </c>
+      <c r="D5" t="str">
+        <v>cook</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D5"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/07-08-2025.xlsx
+++ b/data/07-08-2025.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -472,9 +472,37 @@
         <v>cook</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>garri</v>
+      </c>
+      <c r="B6" t="str">
+        <v/>
+      </c>
+      <c r="C6" t="str">
+        <v/>
+      </c>
+      <c r="D6" t="str">
+        <v>broski</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>bjhiyiugjgk</v>
+      </c>
+      <c r="B7" t="str">
+        <v/>
+      </c>
+      <c r="C7" t="str">
+        <v/>
+      </c>
+      <c r="D7" t="str">
+        <v>jhuiuufrdt</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D7"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/07-08-2025.xlsx
+++ b/data/07-08-2025.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -500,9 +500,37 @@
         <v>jhuiuufrdt</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>area homes</v>
+      </c>
+      <c r="B8" t="str">
+        <v/>
+      </c>
+      <c r="C8" t="str">
+        <v/>
+      </c>
+      <c r="D8" t="str">
+        <v>jhjugoojihiy8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>jhklkluyuooohoh</v>
+      </c>
+      <c r="B9" t="str">
+        <v/>
+      </c>
+      <c r="C9" t="str">
+        <v/>
+      </c>
+      <c r="D9" t="str">
+        <v>guuiiuytrwtyutut</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D9"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/07-08-2025.xlsx
+++ b/data/07-08-2025.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -500,37 +500,9 @@
         <v>jhuiuufrdt</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>area homes</v>
-      </c>
-      <c r="B8" t="str">
-        <v/>
-      </c>
-      <c r="C8" t="str">
-        <v/>
-      </c>
-      <c r="D8" t="str">
-        <v>jhjugoojihiy8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>jhklkluyuooohoh</v>
-      </c>
-      <c r="B9" t="str">
-        <v/>
-      </c>
-      <c r="C9" t="str">
-        <v/>
-      </c>
-      <c r="D9" t="str">
-        <v>guuiiuytrwtyutut</v>
-      </c>
-    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D9"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D7"/>
   </ignoredErrors>
 </worksheet>
 </file>